--- a/Kichban/kichban_normal_after12.xlsx
+++ b/Kichban/kichban_normal_after12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Programs\NhatLe_AI\LinearRegression\NhatLe_v3_23\Kichban\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam\Desktop\water_level3\Kichban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6D60EA-EB48-47DF-A2AD-8762C307029A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFED4D2E-27BE-48AE-81C0-66AF10711908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B6B37B98-9736-49F4-B4E0-4DE82827A1BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6B37B98-9736-49F4-B4E0-4DE82827A1BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Kịch bản</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Thuộc tính biết trong t ngày</t>
   </si>
   <si>
-    <t>Thuộc tính biết trong t+k ngày</t>
-  </si>
-  <si>
     <t>Thư mục xuất kết quả</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Max_Số khoảng cách ngày muốn dự đoán trong tương lai (k)</t>
   </si>
   <si>
-    <t>Chuẩn hóa dữ liệu</t>
-  </si>
-  <si>
     <t>Thuộc tính dự đoán ngày thứ t+k</t>
   </si>
   <si>
@@ -85,6 +79,15 @@
   </si>
   <si>
     <t>./Results/Test_normal_after12/KienGiang_LeThuy_DongHoi</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>batch_size</t>
+  </si>
+  <si>
+    <t>Thuộc tính biết trong t+k giờ</t>
   </si>
 </sst>
 </file>
@@ -120,11 +123,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,76 +446,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085EDADF-31C6-4210-9471-F34EC19760B4}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="2" max="2" width="63.90625" customWidth="1"/>
-    <col min="3" max="3" width="40.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.26953125" customWidth="1"/>
-    <col min="8" max="8" width="71.54296875" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="8" max="8" width="71.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -516,11 +525,11 @@
       <c r="F2">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J2">
         <v>18</v>
@@ -528,22 +537,25 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>0</v>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -551,11 +563,11 @@
       <c r="F3">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J3">
         <v>18</v>
@@ -563,9 +575,15 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kichban/kichban_normal_after12.xlsx
+++ b/Kichban/kichban_normal_after12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam\Desktop\water_level3\Kichban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFED4D2E-27BE-48AE-81C0-66AF10711908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CB04EE-6CCD-45AA-A46E-D5ADCEAB3BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6B37B98-9736-49F4-B4E0-4DE82827A1BE}"/>
   </bookViews>
@@ -123,15 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085EDADF-31C6-4210-9471-F34EC19760B4}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,7 +454,7 @@
     <col min="2" max="2" width="63.88671875" customWidth="1"/>
     <col min="3" max="3" width="40.77734375" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="71.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="71.5546875" customWidth="1"/>
     <col min="9" max="9" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -484,7 +480,7 @@
       <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -525,7 +521,7 @@
       <c r="F2">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
       <c r="I2" t="s">
@@ -538,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N2">
         <v>30</v>
@@ -563,7 +559,7 @@
       <c r="F3">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
       <c r="I3" t="s">
@@ -576,14 +572,11 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N3">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kichban/kichban_normal_after12.xlsx
+++ b/Kichban/kichban_normal_after12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam\Desktop\water_level3\Kichban\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam\Desktop\water_level4\Kichban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CB04EE-6CCD-45AA-A46E-D5ADCEAB3BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B16A14-7938-4B86-8A17-5D8CEFD1F72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6B37B98-9736-49F4-B4E0-4DE82827A1BE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Kịch bản</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Thuộc tính dự đoán ngày thứ t+k</t>
   </si>
   <si>
-    <t>WL_KienGiang, RF_KienGiang, WL_LeThuy, RF_LeThuy</t>
-  </si>
-  <si>
     <t xml:space="preserve"> WL_LeThuy</t>
   </si>
   <si>
@@ -75,12 +72,6 @@
     <t>WL_KienGiang, RF_KienGiang, WL_LeThuy, RF_LeThuy, WL_DongHoi, RF_DongHoi</t>
   </si>
   <si>
-    <t>./Results/Test_normal_after12/KienGiang_LeThuy</t>
-  </si>
-  <si>
-    <t>./Results/Test_normal_after12/KienGiang_LeThuy_DongHoi</t>
-  </si>
-  <si>
     <t>epoch</t>
   </si>
   <si>
@@ -88,16 +79,32 @@
   </si>
   <si>
     <t>Thuộc tính biết trong t+k giờ</t>
+  </si>
+  <si>
+    <t>reference_col</t>
+  </si>
+  <si>
+    <t>./Results/Test_after12/NORMAL_after12</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,11 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085EDADF-31C6-4210-9471-F34EC19760B4}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,7 +466,7 @@
     <col min="9" max="9" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -487,33 +495,36 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -522,10 +533,10 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
       </c>
       <c r="J2">
         <v>18</v>
@@ -539,43 +550,8 @@
       <c r="N2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>1000</v>
-      </c>
-      <c r="N3">
-        <v>30</v>
+      <c r="O2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
